--- a/Documentation/Activity List.xlsx
+++ b/Documentation/Activity List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Central Workfow System\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -605,7 +605,170 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -616,6 +779,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:G56"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Activity Number" dataDxfId="8"/>
+    <tableColumn id="2" name="Activity Name" dataDxfId="7"/>
+    <tableColumn id="3" name="Activity Name Description" dataDxfId="6"/>
+    <tableColumn id="4" name="Number of Days" dataDxfId="5"/>
+    <tableColumn id="5" name="Start Date" dataDxfId="4"/>
+    <tableColumn id="6" name="Dependencies" dataDxfId="3"/>
+    <tableColumn id="7" name="Milestones" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -883,17 +1062,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
     <col min="7" max="7" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29531,5 +29711,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>